--- a/selenium1/page1/Book3.xlsx
+++ b/selenium1/page1/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songsumin/Dev/learning_pair/selenium1/page1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350310A6-7DE9-7142-AEAC-B84FDA29C49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081782D-9E75-D049-82EB-8F0968533793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2128,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1171"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G296" sqref="G296"/>
+      <selection activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4549,2613 +4549,6 @@
         <v>581</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="1"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="1"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="1"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="1"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="1"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="1"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="1"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="1"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="1"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="1"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="1"/>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="1"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="1"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="1"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="1"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="1"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="1"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="1"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="1"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="1"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="1"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="1"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="1"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="1"/>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="1"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="1"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="1"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="1"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" s="1"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="1"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="1"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="1"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" s="1"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="1"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="1"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="1"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="1"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="1"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="1"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="1"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="1"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="1"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="1"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="1"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="1"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="1"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="1"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="1"/>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="1"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="1"/>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="1"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="1"/>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="1"/>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="1"/>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="1"/>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="1"/>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="1"/>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="1"/>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="1"/>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="1"/>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="1"/>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="1"/>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="1"/>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="1"/>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="1"/>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="1"/>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="1"/>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="1"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="1"/>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="1"/>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="1"/>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="1"/>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="1"/>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="1"/>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="1"/>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="1"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="1"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="1"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="1"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="1"/>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="1"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="1"/>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="1"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="1"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="1"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="1"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="1"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="1"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="1"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="1"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="1"/>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="1"/>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="1"/>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="1"/>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="1"/>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="1"/>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="1"/>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="1"/>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="1"/>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="1"/>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="1"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="1"/>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="1"/>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="1"/>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="1"/>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="1"/>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="1"/>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="1"/>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="1"/>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="1"/>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="1"/>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="1"/>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="1"/>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="1"/>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="1"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="1"/>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="1"/>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="1"/>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="1"/>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="1"/>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="1"/>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="1"/>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="1"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="1"/>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="1"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="1"/>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="1"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="1"/>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="1"/>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="1"/>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="1"/>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="1"/>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="1"/>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="1"/>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="1"/>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="1"/>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="1"/>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="1"/>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="1"/>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="1"/>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="1"/>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="1"/>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="1"/>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="1"/>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="1"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="1"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="1"/>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="1"/>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="1"/>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="1"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="1"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="1"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="1"/>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="1"/>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="1"/>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="1"/>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="1"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="1"/>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="1"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="1"/>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="1"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="1"/>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="1"/>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="1"/>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="1"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" s="1"/>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" s="1"/>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" s="1"/>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" s="1"/>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" s="1"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" s="1"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" s="1"/>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" s="1"/>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" s="1"/>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" s="1"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" s="1"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" s="1"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" s="1"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" s="1"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" s="1"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" s="1"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" s="1"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" s="1"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" s="1"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" s="1"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A524" s="1"/>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A525" s="1"/>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A526" s="1"/>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A527" s="1"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528" s="1"/>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A529" s="1"/>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A530" s="1"/>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A531" s="1"/>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A532" s="1"/>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A533" s="1"/>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A534" s="1"/>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A535" s="1"/>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A536" s="1"/>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A537" s="1"/>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A538" s="1"/>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A539" s="1"/>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A540" s="1"/>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A541" s="1"/>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A542" s="1"/>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A543" s="1"/>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A544" s="1"/>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A545" s="1"/>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546" s="1"/>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A547" s="1"/>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A548" s="1"/>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A549" s="1"/>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A550" s="1"/>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A551" s="1"/>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A552" s="1"/>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A553" s="1"/>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A554" s="1"/>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A555" s="1"/>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A556" s="1"/>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A557" s="1"/>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A558" s="1"/>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A559" s="1"/>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A560" s="1"/>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A561" s="1"/>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A562" s="1"/>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A563" s="1"/>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A564" s="1"/>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A565" s="1"/>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A566" s="1"/>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A567" s="1"/>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A568" s="1"/>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A569" s="1"/>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A570" s="1"/>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A571" s="1"/>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A572" s="1"/>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A573" s="1"/>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A574" s="1"/>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A575" s="1"/>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A576" s="1"/>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A577" s="1"/>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A578" s="1"/>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A579" s="1"/>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A580" s="1"/>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A581" s="1"/>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A582" s="1"/>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A583" s="1"/>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A584" s="1"/>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A585" s="1"/>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A586" s="1"/>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A587" s="1"/>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A588" s="1"/>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A589" s="1"/>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A590" s="1"/>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A591" s="1"/>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A592" s="1"/>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A593" s="1"/>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A594" s="1"/>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A595" s="1"/>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A596" s="1"/>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A597" s="1"/>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A598" s="1"/>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A599" s="1"/>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A600" s="1"/>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A601" s="1"/>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A602" s="1"/>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A603" s="1"/>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A604" s="1"/>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A605" s="1"/>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A606" s="1"/>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A607" s="1"/>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A608" s="1"/>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A609" s="1"/>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A610" s="1"/>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A611" s="1"/>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A612" s="1"/>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A613" s="1"/>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A614" s="1"/>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A615" s="1"/>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A616" s="1"/>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A617" s="1"/>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A618" s="1"/>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A619" s="1"/>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A620" s="1"/>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A621" s="1"/>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A622" s="1"/>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A623" s="1"/>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A624" s="1"/>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A625" s="1"/>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A626" s="1"/>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A627" s="1"/>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A628" s="1"/>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A629" s="1"/>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A630" s="1"/>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A631" s="1"/>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A632" s="1"/>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A633" s="1"/>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A634" s="1"/>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A635" s="1"/>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A636" s="1"/>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A637" s="1"/>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A638" s="1"/>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A639" s="1"/>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A640" s="1"/>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A641" s="1"/>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A642" s="1"/>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A643" s="1"/>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A644" s="1"/>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A645" s="1"/>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A646" s="1"/>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A647" s="1"/>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A648" s="1"/>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A649" s="1"/>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A650" s="1"/>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A651" s="1"/>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A652" s="1"/>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A653" s="1"/>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A654" s="1"/>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A655" s="1"/>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A656" s="1"/>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A657" s="1"/>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A658" s="1"/>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A659" s="1"/>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A660" s="1"/>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A661" s="1"/>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A662" s="1"/>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A663" s="1"/>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A664" s="1"/>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A665" s="1"/>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A666" s="1"/>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A667" s="1"/>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A668" s="1"/>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A669" s="1"/>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A670" s="1"/>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A671" s="1"/>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A672" s="1"/>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A673" s="1"/>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A674" s="1"/>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A675" s="1"/>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A676" s="1"/>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A677" s="1"/>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A678" s="1"/>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A679" s="1"/>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A680" s="1"/>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A681" s="1"/>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A682" s="1"/>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A683" s="1"/>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A684" s="1"/>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A685" s="1"/>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A686" s="1"/>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A687" s="1"/>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A688" s="1"/>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A689" s="1"/>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A690" s="1"/>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A691" s="1"/>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A692" s="1"/>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A693" s="1"/>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A694" s="1"/>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A695" s="1"/>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A696" s="1"/>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A697" s="1"/>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A698" s="1"/>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A699" s="1"/>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A700" s="1"/>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A701" s="1"/>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A702" s="1"/>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A703" s="1"/>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A704" s="1"/>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A705" s="1"/>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A706" s="1"/>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A707" s="1"/>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A708" s="1"/>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A709" s="1"/>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A710" s="1"/>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A711" s="1"/>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A712" s="1"/>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A713" s="1"/>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A714" s="1"/>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A715" s="1"/>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A716" s="1"/>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A717" s="1"/>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A718" s="1"/>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A719" s="1"/>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A720" s="1"/>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A721" s="1"/>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A722" s="1"/>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A723" s="1"/>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A724" s="1"/>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A725" s="1"/>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A726" s="1"/>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A727" s="1"/>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A728" s="1"/>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A729" s="1"/>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A730" s="1"/>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A731" s="1"/>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A732" s="1"/>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A733" s="1"/>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A734" s="1"/>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A735" s="1"/>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A736" s="1"/>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A737" s="1"/>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A738" s="1"/>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A739" s="1"/>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A740" s="1"/>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A741" s="1"/>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A742" s="1"/>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A743" s="1"/>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A744" s="1"/>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A745" s="1"/>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A746" s="1"/>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A747" s="1"/>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A748" s="1"/>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A749" s="1"/>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A750" s="1"/>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A751" s="1"/>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A752" s="1"/>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A753" s="1"/>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A754" s="1"/>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A755" s="1"/>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A756" s="1"/>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A757" s="1"/>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A758" s="1"/>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A759" s="1"/>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A760" s="1"/>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A761" s="1"/>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A762" s="1"/>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A763" s="1"/>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A764" s="1"/>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A765" s="1"/>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A766" s="1"/>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A767" s="1"/>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A768" s="1"/>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A769" s="1"/>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A770" s="1"/>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A771" s="1"/>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A772" s="1"/>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A773" s="1"/>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A774" s="1"/>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A775" s="1"/>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A776" s="1"/>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A777" s="1"/>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A778" s="1"/>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A779" s="1"/>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A780" s="1"/>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A781" s="1"/>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A782" s="1"/>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A783" s="1"/>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A784" s="1"/>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A785" s="1"/>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A786" s="1"/>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A787" s="1"/>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A788" s="1"/>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A789" s="1"/>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A790" s="1"/>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A791" s="1"/>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A792" s="1"/>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A793" s="1"/>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A794" s="1"/>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A795" s="1"/>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A796" s="1"/>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A797" s="1"/>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A798" s="1"/>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A799" s="1"/>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A800" s="1"/>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A801" s="1"/>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A802" s="1"/>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A803" s="1"/>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A804" s="1"/>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A805" s="1"/>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A806" s="1"/>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A807" s="1"/>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A808" s="1"/>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A809" s="1"/>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A810" s="1"/>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A811" s="1"/>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A812" s="1"/>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A813" s="1"/>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A814" s="1"/>
-    </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A815" s="1"/>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A816" s="1"/>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A817" s="1"/>
-    </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A818" s="1"/>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A819" s="1"/>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A820" s="1"/>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A821" s="1"/>
-    </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A822" s="1"/>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A823" s="1"/>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A824" s="1"/>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A825" s="1"/>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A826" s="1"/>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A827" s="1"/>
-    </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A828" s="1"/>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A829" s="1"/>
-    </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A830" s="1"/>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A831" s="1"/>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A832" s="1"/>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A833" s="1"/>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A834" s="1"/>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A835" s="1"/>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A836" s="1"/>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A837" s="1"/>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A838" s="1"/>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A839" s="1"/>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A840" s="1"/>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A841" s="1"/>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A842" s="1"/>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A843" s="1"/>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A844" s="1"/>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A845" s="1"/>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A846" s="1"/>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A847" s="1"/>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A848" s="1"/>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A849" s="1"/>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A850" s="1"/>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A851" s="1"/>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A852" s="1"/>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A853" s="1"/>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A854" s="1"/>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A855" s="1"/>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A856" s="1"/>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A857" s="1"/>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A858" s="1"/>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A859" s="1"/>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A860" s="1"/>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A861" s="1"/>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A862" s="1"/>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A863" s="1"/>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A864" s="1"/>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A865" s="1"/>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A866" s="1"/>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A867" s="1"/>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A868" s="1"/>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A869" s="1"/>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A870" s="1"/>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A871" s="1"/>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A872" s="1"/>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A873" s="1"/>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A874" s="1"/>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A875" s="1"/>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A876" s="1"/>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A877" s="1"/>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A878" s="1"/>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A879" s="1"/>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A880" s="1"/>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A881" s="1"/>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A882" s="1"/>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A883" s="1"/>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A884" s="1"/>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A885" s="1"/>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A886" s="1"/>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A887" s="1"/>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A888" s="1"/>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A889" s="1"/>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A890" s="1"/>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A891" s="1"/>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A892" s="1"/>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A893" s="1"/>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A894" s="1"/>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A895" s="1"/>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A896" s="1"/>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A897" s="1"/>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A898" s="1"/>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A899" s="1"/>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A900" s="1"/>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A901" s="1"/>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A902" s="1"/>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A903" s="1"/>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A904" s="1"/>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A905" s="1"/>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A906" s="1"/>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A907" s="1"/>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A908" s="1"/>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A909" s="1"/>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A910" s="1"/>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A911" s="1"/>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A912" s="1"/>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A913" s="1"/>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A914" s="1"/>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A915" s="1"/>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A916" s="1"/>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A917" s="1"/>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A918" s="1"/>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A919" s="1"/>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A920" s="1"/>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A921" s="1"/>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A922" s="1"/>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A923" s="1"/>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A924" s="1"/>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A925" s="1"/>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A926" s="1"/>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A927" s="1"/>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A928" s="1"/>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A929" s="1"/>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A930" s="1"/>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A931" s="1"/>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A932" s="1"/>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A933" s="1"/>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A934" s="1"/>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A935" s="1"/>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A936" s="1"/>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A937" s="1"/>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A938" s="1"/>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A939" s="1"/>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A940" s="1"/>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A941" s="1"/>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A942" s="1"/>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A943" s="1"/>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A944" s="1"/>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A945" s="1"/>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A946" s="1"/>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A947" s="1"/>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A948" s="1"/>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A949" s="1"/>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A950" s="1"/>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A951" s="1"/>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A952" s="1"/>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A953" s="1"/>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A954" s="1"/>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A955" s="1"/>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A956" s="1"/>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A957" s="1"/>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A958" s="1"/>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A959" s="1"/>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A960" s="1"/>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A961" s="1"/>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A962" s="1"/>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A963" s="1"/>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A964" s="1"/>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A965" s="1"/>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A966" s="1"/>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A967" s="1"/>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A968" s="1"/>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A969" s="1"/>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A970" s="1"/>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A971" s="1"/>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A972" s="1"/>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A973" s="1"/>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A974" s="1"/>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A975" s="1"/>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A976" s="1"/>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A977" s="1"/>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A978" s="1"/>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A979" s="1"/>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A980" s="1"/>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A981" s="1"/>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A982" s="1"/>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A983" s="1"/>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A984" s="1"/>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A985" s="1"/>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A986" s="1"/>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A987" s="1"/>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A988" s="1"/>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A989" s="1"/>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A990" s="1"/>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A991" s="1"/>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A992" s="1"/>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A993" s="1"/>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A994" s="1"/>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A995" s="1"/>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A996" s="1"/>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A997" s="1"/>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A998" s="1"/>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A999" s="1"/>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1003" s="1"/>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="1"/>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1005" s="1"/>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1006" s="1"/>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1007" s="1"/>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1008" s="1"/>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1009" s="1"/>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1010" s="1"/>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1011" s="1"/>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1012" s="1"/>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1013" s="1"/>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1014" s="1"/>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1015" s="1"/>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1016" s="1"/>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1017" s="1"/>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1018" s="1"/>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1019" s="1"/>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1020" s="1"/>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1021" s="1"/>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1022" s="1"/>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1023" s="1"/>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1024" s="1"/>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1025" s="1"/>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1026" s="1"/>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1027" s="1"/>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1028" s="1"/>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1029" s="1"/>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1030" s="1"/>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1031" s="1"/>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1032" s="1"/>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1033" s="1"/>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1034" s="1"/>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1035" s="1"/>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1036" s="1"/>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1037" s="1"/>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1038" s="1"/>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1039" s="1"/>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1040" s="1"/>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1041" s="1"/>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1042" s="1"/>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1043" s="1"/>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1044" s="1"/>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1045" s="1"/>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1046" s="1"/>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1047" s="1"/>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1048" s="1"/>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1049" s="1"/>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1050" s="1"/>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1051" s="1"/>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1052" s="1"/>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1053" s="1"/>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1054" s="1"/>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1055" s="1"/>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1056" s="1"/>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1057" s="1"/>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1058" s="1"/>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1059" s="1"/>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1060" s="1"/>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1061" s="1"/>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1062" s="1"/>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1063" s="1"/>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1064" s="1"/>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1065" s="1"/>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1066" s="1"/>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1067" s="1"/>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1068" s="1"/>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1069" s="1"/>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1070" s="1"/>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1071" s="1"/>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1072" s="1"/>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1073" s="1"/>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1074" s="1"/>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1075" s="1"/>
-    </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1076" s="1"/>
-    </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1077" s="1"/>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1078" s="1"/>
-    </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1079" s="1"/>
-    </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1080" s="1"/>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1081" s="1"/>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1082" s="1"/>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1083" s="1"/>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1084" s="1"/>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1085" s="1"/>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1086" s="1"/>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1087" s="1"/>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1088" s="1"/>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1089" s="1"/>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1090" s="1"/>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1091" s="1"/>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1092" s="1"/>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1093" s="1"/>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1094" s="1"/>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1095" s="1"/>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1096" s="1"/>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1097" s="1"/>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1098" s="1"/>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1099" s="1"/>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1100" s="1"/>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1101" s="1"/>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1102" s="1"/>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1103" s="1"/>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1104" s="1"/>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1105" s="1"/>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1106" s="1"/>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1107" s="1"/>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1108" s="1"/>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1109" s="1"/>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1110" s="1"/>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1111" s="1"/>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1112" s="1"/>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1113" s="1"/>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1114" s="1"/>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1115" s="1"/>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1116" s="1"/>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1117" s="1"/>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1118" s="1"/>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1119" s="1"/>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1120" s="1"/>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1121" s="1"/>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1122" s="1"/>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1123" s="1"/>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1124" s="1"/>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1125" s="1"/>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1126" s="1"/>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1127" s="1"/>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1128" s="1"/>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1129" s="1"/>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1130" s="1"/>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1131" s="1"/>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1132" s="1"/>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1133" s="1"/>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1134" s="1"/>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1135" s="1"/>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1136" s="1"/>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1137" s="1"/>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1138" s="1"/>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1139" s="1"/>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1140" s="1"/>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1141" s="1"/>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1142" s="1"/>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1143" s="1"/>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1144" s="1"/>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1145" s="1"/>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1146" s="1"/>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1147" s="1"/>
-    </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1148" s="1"/>
-    </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1149" s="1"/>
-    </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1150" s="1"/>
-    </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1151" s="1"/>
-    </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1152" s="1"/>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1153" s="1"/>
-    </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1154" s="1"/>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1155" s="1"/>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1156" s="1"/>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1157" s="1"/>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1158" s="1"/>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1159" s="1"/>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1160" s="1"/>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1161" s="1"/>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1162" s="1"/>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1163" s="1"/>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1164" s="1"/>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1165" s="1"/>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1166" s="1"/>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1167" s="1"/>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1168" s="1"/>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1169" s="1"/>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1170" s="1"/>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1171" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/selenium1/page1/Book3.xlsx
+++ b/selenium1/page1/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songsumin/Dev/learning_pair/selenium1/page1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081782D-9E75-D049-82EB-8F0968533793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F730CDA1-1FD1-B547-BF6A-17424A6BAD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="576">
   <si>
     <t>도로명</t>
   </si>
@@ -364,12 +364,6 @@
     <t>경기 이천시 설성면 송계리</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>경기 용인시 처인구 양지면 양지로63번길 29-3</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
@@ -673,12 +667,6 @@
     <t>경기 이천시 사음동</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>충북 음성군 감곡면 대학길 222-8</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
@@ -1406,12 +1394,6 @@
   </si>
   <si>
     <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>경기 여주시 가남읍 가남로 24</t>
   </si>
   <si>
     <t>237</t>
@@ -2128,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B302"/>
+  <dimension ref="A1:B299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C309" sqref="C309"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F300" sqref="F300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2810,15 +2792,15 @@
         <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
         <v>168</v>
-      </c>
-      <c r="B86" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -3010,23 +2992,23 @@
         <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" t="s">
         <v>217</v>
-      </c>
-      <c r="B111" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" t="s">
         <v>219</v>
-      </c>
-      <c r="B112" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -3186,23 +3168,23 @@
         <v>258</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" t="s">
         <v>260</v>
-      </c>
-      <c r="B133" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" t="s">
         <v>262</v>
-      </c>
-      <c r="B134" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -3418,23 +3400,23 @@
         <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" t="s">
         <v>317</v>
-      </c>
-      <c r="B162" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" t="s">
         <v>319</v>
-      </c>
-      <c r="B163" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -3458,23 +3440,23 @@
         <v>324</v>
       </c>
       <c r="B166" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B167" t="s">
         <v>326</v>
-      </c>
-      <c r="B167" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B168" t="s">
         <v>328</v>
-      </c>
-      <c r="B168" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -3482,23 +3464,23 @@
         <v>329</v>
       </c>
       <c r="B169" t="s">
-        <v>330</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" t="s">
         <v>331</v>
-      </c>
-      <c r="B170" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B171" t="s">
         <v>333</v>
-      </c>
-      <c r="B171" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -3586,23 +3568,23 @@
         <v>354</v>
       </c>
       <c r="B182" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" t="s">
         <v>356</v>
-      </c>
-      <c r="B183" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B184" t="s">
         <v>358</v>
-      </c>
-      <c r="B184" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -3930,31 +3912,31 @@
         <v>439</v>
       </c>
       <c r="B225" t="s">
-        <v>440</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B226" t="s">
-        <v>442</v>
+        <v>280</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B227" t="s">
-        <v>163</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B228" t="s">
         <v>444</v>
-      </c>
-      <c r="B228" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -4010,63 +3992,63 @@
         <v>457</v>
       </c>
       <c r="B235" t="s">
-        <v>458</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B236" t="s">
         <v>459</v>
-      </c>
-      <c r="B236" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B237" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B238" t="s">
         <v>462</v>
-      </c>
-      <c r="B238" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B239" t="s">
-        <v>465</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B240" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B241" t="s">
         <v>467</v>
-      </c>
-      <c r="B241" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B242" t="s">
         <v>469</v>
-      </c>
-      <c r="B242" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -4106,31 +4088,31 @@
         <v>478</v>
       </c>
       <c r="B247" t="s">
-        <v>479</v>
+        <v>190</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B248" t="s">
         <v>480</v>
-      </c>
-      <c r="B248" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B249" t="s">
         <v>482</v>
-      </c>
-      <c r="B249" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B250" t="s">
         <v>484</v>
-      </c>
-      <c r="B250" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -4202,47 +4184,47 @@
         <v>501</v>
       </c>
       <c r="B259" t="s">
-        <v>502</v>
+        <v>390</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B260" t="s">
         <v>503</v>
-      </c>
-      <c r="B260" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B261" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B262" t="s">
-        <v>394</v>
+        <v>506</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B263" t="s">
         <v>508</v>
-      </c>
-      <c r="B263" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B264" t="s">
         <v>510</v>
-      </c>
-      <c r="B264" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -4274,31 +4256,31 @@
         <v>517</v>
       </c>
       <c r="B268" t="s">
-        <v>518</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B269" t="s">
         <v>519</v>
-      </c>
-      <c r="B269" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B270" t="s">
         <v>521</v>
-      </c>
-      <c r="B270" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B271" t="s">
         <v>523</v>
-      </c>
-      <c r="B271" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -4354,31 +4336,31 @@
         <v>536</v>
       </c>
       <c r="B278" t="s">
-        <v>537</v>
+        <v>266</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B279" t="s">
         <v>538</v>
-      </c>
-      <c r="B279" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B280" t="s">
         <v>540</v>
-      </c>
-      <c r="B280" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B281" t="s">
         <v>542</v>
-      </c>
-      <c r="B281" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -4466,87 +4448,63 @@
         <v>563</v>
       </c>
       <c r="B292" t="s">
-        <v>564</v>
+        <v>159</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B293" t="s">
         <v>565</v>
-      </c>
-      <c r="B293" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B294" t="s">
-        <v>568</v>
+        <v>333</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B295" t="s">
-        <v>161</v>
+        <v>568</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B296" t="s">
-        <v>571</v>
+        <v>192</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B297" t="s">
-        <v>337</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B298" t="s">
         <v>573</v>
-      </c>
-      <c r="B298" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B299" t="s">
         <v>575</v>
-      </c>
-      <c r="B299" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B300" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B301" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B302" t="s">
-        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/selenium1/page1/Book3.xlsx
+++ b/selenium1/page1/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\skku\learning_pair\selenium1\page1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634ACDA2-A771-449A-A562-66516494737F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D59213-24C0-476A-8B84-C5F9B10345F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,7 +922,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1233,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2627,7 +2647,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/selenium1/page1/Book3.xlsx
+++ b/selenium1/page1/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\skku\learning_pair\selenium1\page1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D59213-24C0-476A-8B84-C5F9B10345F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229E1513-5A63-4C10-86D3-C1A7A6989E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,17 +922,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1254,7 +1244,7 @@
   <dimension ref="A1:A277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2647,8 +2637,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
